--- a/biology/Botanique/Amourette/Amourette.xlsx
+++ b/biology/Botanique/Amourette/Amourette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -517,24 +529,26 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amourette, un nom vernaculaire qui renvoie à diverses graminées:
 du genre Briza
-petite Amourette, Briza minor[1]
-Amourette tremblante, Amourette commune, Briza media[1]
-Amourette grande, Briza maxima[1]
-Amourette petite, Eragrostis minor[1]
+petite Amourette, Briza minor
+Amourette tremblante, Amourette commune, Briza media
+Amourette grande, Briza maxima
+Amourette petite, Eragrostis minor
 Plantes d'autres familles
-Amourette des prés, Lychnis flos-cuculi[1]
-Amourette moussue, Saxifraga hypnoides[1]
-Amourette de Saint-Christophe, Volkameria aculeata aux Antilles[1]
-Amourette jaune, Medicago arborea à Cayenne[1]
+Amourette des prés, Lychnis flos-cuculi
+Amourette moussue, Saxifraga hypnoides
+Amourette de Saint-Christophe, Volkameria aculeata aux Antilles
+Amourette jaune, Medicago arborea à Cayenne
 Amourette, un nom vernaculaire du Muguet de mai
 Amourette, Brosimum guianense, aussi appelé Bois-lettre moucheté ou Paya, un arbre d'Amazonie de la famille des Moraceae
 Amourette, Mimosa pigra, originaire des Antilles et devenu envahissant en Australie,
-Amourette, Machaerium lunatum, un arbuste épineux de zones humides de Guyane(L.f.) Ducke notamment dans la région de Kaw en Guyane[2]
-Bois d'amourette, Senegalia tenuifolia en Asie et en Amérique du Sud[1]</t>
+Amourette, Machaerium lunatum, un arbuste épineux de zones humides de Guyane(L.f.) Ducke notamment dans la région de Kaw en Guyane
+Bois d'amourette, Senegalia tenuifolia en Asie et en Amérique du Sud</t>
         </is>
       </c>
     </row>
